--- a/va_facility_data_2025-02-20/Gwinnett County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gwinnett%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gwinnett County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gwinnett%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0df84fed094e46dd8699179f118737b3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0b613e6d1d24443db4f2fc55fbb907ff"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb11a1a54095347ad9ba52857f5f484b3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9c4b9556819846fbbc1495e21d27997b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9a073a7de7024a5c9db6ce27164d4e77"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5c0ee017d09d44838ba373744ae01886"/>
   </x:sheets>
 </x:workbook>
 </file>
